--- a/data/gene-expression-fake-data.xlsx
+++ b/data/gene-expression-fake-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengyin/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E491C24B-2F5E-6D47-8728-7C1EA140C654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868AC41E-73D8-5544-9C2A-96110FFB0370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17420" xr2:uid="{7F4BE5CC-F8AD-7942-AC05-1E899398336B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="12">
   <si>
     <t>sample-id</t>
   </si>
@@ -57,6 +57,21 @@
   </si>
   <si>
     <t>goi6</t>
+  </si>
+  <si>
+    <t>treatment</t>
+  </si>
+  <si>
+    <t>treatment1</t>
+  </si>
+  <si>
+    <t>treatment2</t>
+  </si>
+  <si>
+    <t>treatment3</t>
+  </si>
+  <si>
+    <t>control</t>
   </si>
 </sst>
 </file>
@@ -434,1184 +449,1337 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361D8A33-4A42-AD4D-92F1-710F4E642152}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
         <v>0.82620703700924125</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>6.7086481474292636E-2</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>8.775381866323273E-2</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.82057516603105385</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>6.4657816930341783E-2</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.23166926450053749</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
         <v>0.54091521126680253</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.45086106898777889</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.68758373958870744</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.79244899757472775</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.36556532256598973</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.1700043743341747</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
         <v>0.1851174447375814</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.18168249685462656</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.22525846526687965</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.83602144262034028</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.84814024352260664</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.42882527641804313</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
         <v>0.3172814340087271</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.7856877572016685</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.33435994042303485</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.76667881671966076</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.24224945597364755</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.42751826302910489</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
         <v>0.76803987895824521</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.93142866781363887</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.52333111509072427</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.24840481890329325</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.32604400355778351</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.12128684876065365</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
         <v>0.78067591739109221</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.25723872734958397</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.49797111531911908</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.19419239519791986</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.98121126310812667</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.80071936873012106</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
         <v>0.46151288156652315</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.30616688925389246</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.76621555431670152</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.50913978356406209</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.31440123607549231</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.11299180775761952</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
         <v>0.28038617348547301</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.52047454073990584</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.28013367618967089</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.75282991863493709</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.55739427770695715</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.37347855848107903</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
         <v>0.20469532795101941</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.81398550876473774</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.47520650262093411</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>2.2992207177949475E-2</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.80139527424701462</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.70123038363416379</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
         <v>0.88681980183715636</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.1825975655060269</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.89105149154044094</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.17931046616409629</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.96409428724932422</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>2.9121106681513464E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
         <v>0.99836628032251407</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.45218461654715325</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.72130014095793882</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.43879003217806056</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.23785420245188138</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.21179106634050304</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
         <v>0.92765255092059495</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.20217989273929982</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.42183775458475647</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.40687095035414345</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.39838188145691178</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0.28810042323527196</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
         <v>0.44609688815557702</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.17344751290683735</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.58149410337328877</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0.44387322983390309</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>2.0057299911727333E-2</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0.17290185852907003</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
         <v>0.78890562178507828</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>1.3289273511932764E-3</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.96009866309475378</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.97601436046721302</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.49846703562728001</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.46531978607142965</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
         <v>0.37465040842272801</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.3307450419276079</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.9414743409893811</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.30606503826633769</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.92818216231614614</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.40547099233445061</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
         <v>0.56486842713517305</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.49670234924345946</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.23468292701208338</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.12744107310987607</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.43943470500469628</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.11168095234471587</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
         <v>7.0453882041762728E-2</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.70982814449968035</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>7.679847086862257E-2</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.60517064091590844</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.51795004100648334</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.7002119061324743</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
         <v>0.31293450428242864</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.44383444635851177</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.64858114380502341</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.20612607137358729</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.31494481901046756</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0.1533608017032777</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
         <v>0.68129936544417669</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.56853479477189073</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.44668788112775437</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.97567884665273219</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.36600703419419789</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>2.0435017017066959E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
         <v>0.90352052681123429</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.38100351318026771</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.84674597152300113</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.34741595549382742</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.67547056789153437</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.94462834108748051</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22">
         <v>0.17447458213495581</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.18598652061959797</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>4.6215306883690688E-2</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.95164064846759167</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.7249038077948754</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.69429512114321879</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23">
         <v>0.73173011422854595</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.97469184601933434</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.3000078377520311</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0.95192188274235734</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.27402566364161274</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.53890588509550219</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24">
         <v>8.3161365513339747E-2</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.63711485295940307</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.54946550725796461</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0.78120576427299582</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.13751482545327898</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>0.84732847485484974</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25">
         <v>0.76014727779841862</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.6612705589443405</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.92960468485562298</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>0.8315039542412147</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.86504059964477753</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>0.7781250781778456</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26">
         <v>0.80748977756665596</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>0.36563901709742919</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>0.17558474665556711</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>0.29305817272109502</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>0.38207049950030281</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>0.3878258885700856</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27">
         <v>0.93558780281715903</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>0.9927475644054492</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>0.75140001673457002</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>0.14564776276495806</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>0.24989762597141041</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>0.50643060191091205</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
         <v>0.45887679610881316</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>0.50137867379915635</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>6.6057487263463166E-2</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>0.33613113644195058</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>0.56295421766808418</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>0.72440899877469211</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29">
         <v>0.91353117038412579</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>0.83132716412094732</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>0.22631614772387587</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>0.10603097165387387</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>0.24338128911012924</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>0.14701474886231081</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30">
         <v>0.72038882969292728</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>0.16483266221406434</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>0.57896388944921751</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>0.38910653033492482</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>8.197505124994775E-2</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>0.9066402348529643</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31">
         <v>0.38913654513391349</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>0.60146958393439964</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>0.26932406380501028</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>6.515463557386747E-2</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>7.3794926565706742E-2</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>0.78120756514163292</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32">
         <v>0.59279290191491896</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>0.91180580828427971</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>0.46974698643446777</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>0.85311703475710399</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>0.48421188687496608</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>1.954849500102851E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33">
         <v>0.62397821625554495</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>0.2895558036750111</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>0.51487561445496843</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>0.23495047386827861</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>0.40848285860510958</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>0.6191447496867547</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34">
         <v>0.85314761799044048</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>0.13478016100618917</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>0.28113414981540874</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>0.89212884538491288</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>0.25339869657276259</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>0.39071008837490695</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35">
         <v>0.15473428394201671</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>0.16190607757117481</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>0.74823807507982099</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>0.97307795215354664</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>0.48400359327587561</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>0.89130022856040514</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36">
         <v>0.68334118918741271</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>0.71044408767749634</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>0.40839459629697439</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>0.83832009913738925</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>0.52036236129387181</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>0.65528470434233177</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37">
         <v>0.22927334775407227</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>0.64957482227408514</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>5.9564510944638438E-2</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>0.46467334979191488</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>0.43662185208750737</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>0.51758790885749573</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38">
         <v>2.8712183911474898E-2</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>0.18778525637994259</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>0.83655497932746625</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>0.51654242411412232</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>5.245232342302919E-2</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>0.52361662429820932</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39">
         <v>0.40643284901341181</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>0.25243336714909614</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>0.96809656313412162</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>0.70468878401505997</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>0.14012416932031191</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>0.44285460548524991</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40">
         <v>0.71879532166995652</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>0.88908662244256298</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>0.28840977141979707</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>0.5635934854951975</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>0.57911253840732146</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>0.39655883269505865</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41">
         <v>0.78564185747703641</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>0.52731739539902212</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>3.6570375372815267E-2</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>0.70807103345402889</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>0.55209384207775059</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>0.13738793858253839</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42">
         <v>0.18677079905521987</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>0.80756899568816454</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>0.35300393146572773</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>0.4412976205820236</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>0.58069716534979698</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>0.9123628568751706</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43">
         <v>0.66170986027904832</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>0.69754164225079163</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>0.45859517024147989</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>0.47098793344928047</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>0.93722272198906142</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>0.15357707977346535</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44">
         <v>0.25315581647211305</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>0.4915927053475585</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>5.0201853150492526E-2</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>0.7837264335623384</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>0.54126563423882623</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>0.92778002449837416</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45">
         <v>0.78034364340977869</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>0.75232385722055228</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>0.74615933597097261</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>0.98916166031622232</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>0.87698343139661139</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>0.71949472803047221</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46">
         <v>0.1671456906767993</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>0.48347514787158508</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>2.1473084074531301E-2</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>0.97785855580060621</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>0.27252269241585714</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>0.5201933517749262</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47">
         <v>0.45074582891884296</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>0.69610203400747239</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>0.83891237149677655</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>0.70513126066789744</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>0.13741520779627436</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>0.11022047501873011</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48">
         <v>0.61127795096618853</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>0.25560858724854341</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>0.34489209418268862</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>0.76344676323243565</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>0.22669788416745595</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>5.9694420951865501E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49">
         <v>0.79124002153813822</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>0.86778042557989699</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>4.2857363694782324E-2</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>0.57622486077598833</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>0.30895422901403069</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>0.80710382357847632</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50">
         <v>0.79478416559812071</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>0.9282749868038872</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>7.0133005234344958E-2</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>8.0586024540497903E-2</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>0.25402792144602238</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>0.19722460603434822</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51">
         <v>0.3319115110402775</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>0.40624433743763511</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>0.74064095101498295</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>0.66455369994577917</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>0.31981368155768353</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>0.76842713878872937</v>
       </c>
     </row>
